--- a/ITCI.xlsx
+++ b/ITCI.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80DC077-C7FD-4C07-9BA4-82CDE6B5C989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A368F9A-0A35-48A6-8D14-A1C85FD3B387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31815" yWindow="3195" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{413E4C43-4A93-498F-B252-2A83071CEB55}"/>
+    <workbookView xWindow="12290" yWindow="2460" windowWidth="28840" windowHeight="15250" activeTab="1" xr2:uid="{413E4C43-4A93-498F-B252-2A83071CEB55}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Caplyta" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Price</t>
   </si>
@@ -115,13 +116,115 @@
   </si>
   <si>
     <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Caplyta (lumateperone)</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>Caplyta</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>lumateperone</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Provisional filed 3/12/2007</t>
+  </si>
+  <si>
+    <t>10464938 COM expires 3/12/2028, filed 2019/6/12, issuance 2019/11/5</t>
+  </si>
+  <si>
+    <t>8309722 synthesis patent</t>
+  </si>
+  <si>
+    <t>11753419 COM for a different molecule - expires 2040</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Luma</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>lumateperone LAI</t>
+  </si>
+  <si>
+    <t>PDE1</t>
+  </si>
+  <si>
+    <t>ITI-1020</t>
+  </si>
+  <si>
+    <t>lenrisopdun</t>
+  </si>
+  <si>
+    <t>Parkinson's</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>GAD</t>
+  </si>
+  <si>
+    <t>ITI-333</t>
+  </si>
+  <si>
+    <t>ITI-1500</t>
+  </si>
+  <si>
+    <t>ITI-1284 (lumateperone)</t>
+  </si>
+  <si>
+    <t>deuterated lumateperone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -135,6 +238,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,11 +262,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -169,8 +366,32 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -186,6 +407,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37896</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>35984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37896</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114346</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495E6E80-729A-016C-BD6A-5B461CF2EB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6146286" y="35984"/>
+          <a:ext cx="0" cy="4040142"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6684</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85A455E-273F-CABC-0375-BA5C4E166652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12857079" y="26737"/>
+          <a:ext cx="0" cy="5120105"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,26 +831,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21F22D9-B857-4D07-ADA2-BFB54AFAF7D9}">
-  <dimension ref="K2:M7"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="15"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>72.11</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="L2" s="23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43819</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -535,16 +902,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="1">
         <f>+L2*L3</f>
-        <v>7619.6419617500005</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+        <v>8876.0217000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="9"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -556,7 +947,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -567,44 +967,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>6594.9849617500004</v>
-      </c>
+        <v>7851.364700000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Caplyta!A1" display="Caplyta (lumateperone)" xr:uid="{B33AE6AE-EA79-4532-AB9F-86E767284ABC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23B5F3B-5C68-469A-B43A-91747303D79C}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="2"/>
+    <col min="20" max="20" width="8.7265625" customWidth="1"/>
+    <col min="22" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -629,227 +1082,798 @@
       <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="M2">
+        <v>2017</v>
+      </c>
+      <c r="N2">
+        <v>2018</v>
+      </c>
+      <c r="O2">
+        <v>2019</v>
+      </c>
+      <c r="P2">
+        <v>2020</v>
+      </c>
+      <c r="Q2">
+        <f>+P2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="R2">
+        <f>+Q2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:AE2" si="0">+R2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3">
+        <v>94.730999999999995</v>
+      </c>
+      <c r="D3" s="3">
+        <v>110.128</v>
+      </c>
+      <c r="E3" s="3">
+        <v>125.81</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>144.84299999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>161.27600000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>175.15899999999999</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.112</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.216</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:31" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5">
+      <c r="C5" s="5">
+        <f>+C3+C4</f>
+        <v>95.305999999999997</v>
+      </c>
+      <c r="D5" s="5">
+        <f>+D3+D4</f>
         <v>110.792</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5">
+      <c r="E5" s="5">
+        <f>+E3+E4</f>
+        <v>126.173</v>
+      </c>
+      <c r="F5" s="5">
+        <f>+S5-E5-D5-C5</f>
+        <v>129.904</v>
+      </c>
+      <c r="G5" s="5">
+        <f>+G4+G3</f>
+        <v>144.86599999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <f>+H4+H3</f>
         <v>161.38800000000001</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="I5" s="5">
+        <f>+I3+I4</f>
+        <v>175.375</v>
+      </c>
+      <c r="J5" s="5">
+        <f>+I5+15</f>
+        <v>190.375</v>
+      </c>
+      <c r="P5" s="4">
+        <v>22.53</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>81.707999999999998</v>
+      </c>
+      <c r="R5" s="4">
+        <v>249.13200000000001</v>
+      </c>
+      <c r="S5" s="4">
+        <v>462.17500000000001</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUM(G5:J5)</f>
+        <v>672.00400000000002</v>
+      </c>
+      <c r="U5" s="4">
+        <f>+T5*2</f>
+        <v>1344.008</v>
+      </c>
+      <c r="V5" s="4">
+        <f>+U5*1.5</f>
+        <v>2016.0120000000002</v>
+      </c>
+      <c r="W5" s="4">
+        <f>+V5*1.5</f>
+        <v>3024.018</v>
+      </c>
+      <c r="X5" s="4">
+        <f>+W5*1.5</f>
+        <v>4536.027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C6" s="3">
+        <v>6.7510000000000003</v>
+      </c>
+      <c r="D6" s="3">
         <v>7.1630000000000003</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
+      <c r="E6" s="3">
+        <v>9.1289999999999996</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="H6" s="3">
         <v>11.353999999999999</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="I6" s="3">
+        <v>15.304</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="U6" s="1">
+        <f>+U5*0.1</f>
+        <v>134.4008</v>
+      </c>
+      <c r="V6" s="1">
+        <f>+V5*0.1</f>
+        <v>201.60120000000003</v>
+      </c>
+      <c r="W6" s="1">
+        <f>+W5*0.1</f>
+        <v>302.40180000000004</v>
+      </c>
+      <c r="X6" s="1">
+        <f>+X5*0.1</f>
+        <v>453.60270000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <f>+D3-D4</f>
+      <c r="C7" s="3">
+        <f>+C5-C6</f>
+        <v>88.554999999999993</v>
+      </c>
+      <c r="D7" s="3">
+        <f>+D5-D6</f>
         <v>103.629</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <f>+H3-H4</f>
+      <c r="E7" s="3">
+        <f>+E5-E6</f>
+        <v>117.044</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="3">
+        <f>+G5-G6</f>
+        <v>134.96599999999998</v>
+      </c>
+      <c r="H7" s="3">
+        <f>+H5-H6</f>
         <v>150.03399999999999</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="L5" s="1">
-        <f>11*16</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="I7" s="3">
+        <f>+I5-I6</f>
+        <v>160.071</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="U7" s="1">
+        <f>+U5-U6</f>
+        <v>1209.6071999999999</v>
+      </c>
+      <c r="V7" s="1">
+        <f>+V5-V6</f>
+        <v>1814.4108000000001</v>
+      </c>
+      <c r="W7" s="1">
+        <f>+W5-W6</f>
+        <v>2721.6161999999999</v>
+      </c>
+      <c r="X7" s="1">
+        <f>+X5-X6</f>
+        <v>4082.4243000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
+      <c r="C8" s="3">
+        <v>98.923000000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>101.014</v>
+      </c>
+      <c r="E8" s="3">
+        <v>105.20699999999999</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>113.08499999999999</v>
+      </c>
+      <c r="H8" s="3">
         <v>121.574</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="L6" s="1">
+      <c r="I8" s="3">
+        <v>132.101</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="U8" s="1">
+        <v>50</v>
+      </c>
+      <c r="V8" s="1">
+        <v>50</v>
+      </c>
+      <c r="W8" s="1">
+        <v>50</v>
+      </c>
+      <c r="X8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3">
+        <v>38.024000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>49.793999999999997</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41.55</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>42.832999999999998</v>
+      </c>
+      <c r="H9" s="3">
+        <v>56.183</v>
+      </c>
+      <c r="I9" s="3">
+        <v>66.819000000000003</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:31" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10" si="1">+C8+C9</f>
+        <v>136.947</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:G10" si="2">+D8+D9</f>
+        <v>150.80799999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="2"/>
+        <v>146.75700000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f>+G8+G9</f>
+        <v>155.91800000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <f>+H8+H9</f>
+        <v>177.75700000000001</v>
+      </c>
+      <c r="I10" s="3">
+        <f>+I8+I9</f>
+        <v>198.92000000000002</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="U10" s="1">
+        <f>+U8+U9</f>
+        <v>50</v>
+      </c>
+      <c r="V10" s="1">
+        <f>+V8+V9</f>
+        <v>50</v>
+      </c>
+      <c r="W10" s="1">
+        <f>+W8+W9</f>
+        <v>50</v>
+      </c>
+      <c r="X10" s="1">
+        <f>+X8+X9</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11" si="3">+C7-C10</f>
+        <v>-48.39200000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:G11" si="4">+D7-D10</f>
+        <v>-47.178999999999988</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="4"/>
+        <v>-29.713000000000008</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f>+G7-G10</f>
+        <v>-20.952000000000027</v>
+      </c>
+      <c r="H11" s="3">
+        <f>+H7-H10</f>
+        <v>-27.723000000000013</v>
+      </c>
+      <c r="I11" s="3">
+        <f>+I7-I10</f>
+        <v>-38.849000000000018</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="U11" s="1">
+        <f>+U7-U10</f>
+        <v>1159.6071999999999</v>
+      </c>
+      <c r="V11" s="1">
+        <f>+V7-V10</f>
+        <v>1764.4108000000001</v>
+      </c>
+      <c r="W11" s="1">
+        <f>+W7-W10</f>
+        <v>2671.6161999999999</v>
+      </c>
+      <c r="X11" s="1">
+        <f>+X7-X10</f>
+        <v>4032.4243000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>56.183</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="L7" s="1">
+      <c r="C12" s="3">
+        <v>4.3490000000000002</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4.53</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5.4980000000000002</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>6.0640000000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11.56</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12.898999999999999</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3">
+        <f>+C11+C12</f>
+        <v>-44.043000000000006</v>
+      </c>
+      <c r="D13" s="3">
+        <f>+D11+D12</f>
+        <v>-42.648999999999987</v>
+      </c>
+      <c r="E13" s="3">
+        <f>+E11+E12</f>
+        <v>-24.215000000000007</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <f>+G11+G12</f>
+        <v>-14.888000000000027</v>
+      </c>
+      <c r="H13" s="3">
+        <f>+H11+H12</f>
+        <v>-16.163000000000011</v>
+      </c>
+      <c r="I13" s="3">
+        <f>+I11+I12</f>
+        <v>-25.950000000000017</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="U13" s="1">
+        <f>+U11+U12</f>
+        <v>1159.6071999999999</v>
+      </c>
+      <c r="V13" s="1">
+        <f>+V11+V12</f>
+        <v>1764.4108000000001</v>
+      </c>
+      <c r="W13" s="1">
+        <f>+W11+W12</f>
+        <v>2671.6161999999999</v>
+      </c>
+      <c r="X13" s="1">
+        <f>+X11+X12</f>
+        <v>4032.4243000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="U14" s="1">
+        <f>+U13*0.1</f>
+        <v>115.96071999999999</v>
+      </c>
+      <c r="V14" s="1">
+        <f>+V13*0.1</f>
+        <v>176.44108000000003</v>
+      </c>
+      <c r="W14" s="1">
+        <f>+W13*0.1</f>
+        <v>267.16162000000003</v>
+      </c>
+      <c r="X14" s="1">
+        <f>+X13*0.1</f>
+        <v>403.24243000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <f>+C13-C14</f>
+        <v>-44.043000000000006</v>
+      </c>
+      <c r="D15" s="3">
+        <f>+D13-D14</f>
+        <v>-42.648999999999987</v>
+      </c>
+      <c r="E15" s="3">
+        <f>+E13-E14</f>
+        <v>-24.215000000000007</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <f>+G13-G14</f>
+        <v>-14.945000000000027</v>
+      </c>
+      <c r="H15" s="3">
+        <f>+H13-H14</f>
+        <v>-16.22000000000001</v>
+      </c>
+      <c r="I15" s="3">
+        <f>+I13-I14</f>
+        <v>-25.950000000000017</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="U15" s="1">
+        <f>+U13-U14</f>
+        <v>1043.6464799999999</v>
+      </c>
+      <c r="V15" s="1">
+        <f>+V13-V14</f>
+        <v>1587.9697200000001</v>
+      </c>
+      <c r="W15" s="1">
+        <f>+W13-W14</f>
+        <v>2404.4545800000001</v>
+      </c>
+      <c r="X15" s="1">
+        <f>+X13-X14</f>
+        <v>3629.1818700000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="17">
+        <f>+C15/C17</f>
+        <v>-0.46295413532312418</v>
+      </c>
+      <c r="D16" s="17">
+        <f>+D15/D17</f>
+        <v>-0.44450089628177264</v>
+      </c>
+      <c r="E16" s="17">
+        <f>+E15/E17</f>
+        <v>-0.25186419287178469</v>
+      </c>
+      <c r="G16" s="17">
+        <f>+G15/G17</f>
+        <v>-0.15427052981268985</v>
+      </c>
+      <c r="H16" s="17">
+        <f>+H15/H17</f>
+        <v>-0.15637803481728996</v>
+      </c>
+      <c r="I16" s="17">
+        <f>+I15/I17</f>
+        <v>-0.24534741411294689</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>95.134693999999996</v>
+      </c>
+      <c r="D17" s="3">
+        <v>95.948063000000005</v>
+      </c>
+      <c r="E17" s="3">
+        <v>96.143083000000004</v>
+      </c>
+      <c r="G17" s="3">
+        <v>96.875275000000002</v>
+      </c>
+      <c r="H17" s="3">
+        <v>103.723007</v>
+      </c>
+      <c r="I17" s="3">
+        <v>105.76838600000001</v>
+      </c>
+      <c r="V17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W17" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>47</v>
+      </c>
+      <c r="W18" s="1">
+        <f>NPV(W17,U15:X15)</f>
+        <v>7093.8014358364126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" s="1">
+        <f>+Main!L5</f>
+        <v>1024.6570000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>48</v>
+      </c>
+      <c r="W20" s="1">
+        <f>+W19+W18</f>
+        <v>8118.4584358364127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="1">
+        <v>8876</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W23" s="22">
+        <f>+W20/W22-1</f>
+        <v>-8.5347179378502447E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA216E4-A0A2-4368-8227-5BC8BE7544B3}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:G8" si="0">+D6+D7</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <f>+H6+H7</f>
-        <v>177.75700000000001</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="L8" s="4">
-        <f>+L5+L6+L7</f>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <f t="shared" ref="D9:G9" si="1">+D5-D8</f>
-        <v>103.629</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <f>+H5-H8</f>
-        <v>-27.723000000000013</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>11.56</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" s="1">
-        <f>21*16</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <f>+H9+H10</f>
-        <v>-16.163000000000011</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3">
-        <f>+H11-H12</f>
-        <v>-16.22000000000001</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{324EC9A5-F6BD-4AD8-BB49-1F6E4B9915B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ITCI.xlsx
+++ b/ITCI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A368F9A-0A35-48A6-8D14-A1C85FD3B387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F7686E-43DC-4756-87A0-4980AC99160C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12290" yWindow="2460" windowWidth="28840" windowHeight="15250" activeTab="1" xr2:uid="{413E4C43-4A93-498F-B252-2A83071CEB55}"/>
+    <workbookView xWindow="-29970" yWindow="990" windowWidth="25080" windowHeight="19755" activeTab="2" xr2:uid="{413E4C43-4A93-498F-B252-2A83071CEB55}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Price</t>
   </si>
@@ -218,6 +218,30 @@
   </si>
   <si>
     <t>deuterated lumateperone</t>
+  </si>
+  <si>
+    <t>9586960 crystal patent</t>
+  </si>
+  <si>
+    <t>8598119 MOU patent</t>
+  </si>
+  <si>
+    <t>8648077 crystal patent</t>
+  </si>
+  <si>
+    <t>9199995 crystal patent</t>
+  </si>
+  <si>
+    <t>9616061 formulation patent</t>
+  </si>
+  <si>
+    <t>9956227 MOU patent</t>
+  </si>
+  <si>
+    <t>10117867 MOU patent</t>
+  </si>
+  <si>
+    <t>RE48839 MOU patent</t>
   </si>
 </sst>
 </file>
@@ -353,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -367,8 +391,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -376,16 +399,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -834,64 +853,63 @@
   <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="14"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="20">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>43819</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -902,20 +920,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
@@ -924,18 +939,14 @@
         <v>8876.0217000000011</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -947,16 +958,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -967,18 +974,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
@@ -987,42 +990,33 @@
         <v>7851.364700000001</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="8"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1036,28 +1030,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23B5F3B-5C68-469A-B43A-91747303D79C}">
   <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.1796875" style="2"/>
-    <col min="20" max="20" width="8.7265625" customWidth="1"/>
-    <col min="22" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" style="2"/>
+    <col min="20" max="20" width="8.7109375" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1155,7 +1149,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1180,7 +1174,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1205,7 +1199,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:31" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1268,7 @@
         <v>4536.027</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1287,7 +1281,7 @@
       <c r="E6" s="3">
         <v>9.1289999999999996</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>9.9</v>
       </c>
@@ -1315,7 +1309,7 @@
         <v>453.60270000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1331,7 +1325,7 @@
         <f>+E5-E6</f>
         <v>117.044</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3">
         <f>+G5-G6</f>
         <v>134.96599999999998</v>
@@ -1362,7 +1356,7 @@
         <v>4082.4243000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1399,7 +1393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1424,7 +1418,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1433,7 +1427,7 @@
         <v>136.947</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:G10" si="2">+D8+D9</f>
+        <f t="shared" ref="D10:F10" si="2">+D8+D9</f>
         <v>150.80799999999999</v>
       </c>
       <c r="E10" s="3">
@@ -1478,7 +1472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1487,7 +1481,7 @@
         <v>-48.39200000000001</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ref="D11:G11" si="4">+D7-D10</f>
+        <f t="shared" ref="D11:F11" si="4">+D7-D10</f>
         <v>-47.178999999999988</v>
       </c>
       <c r="E11" s="3">
@@ -1528,7 +1522,7 @@
         <v>4032.4243000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1565,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1612,7 +1606,7 @@
         <v>4032.4243000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1653,7 +1647,7 @@
         <v>403.24243000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1700,36 +1694,36 @@
         <v>3629.1818700000003</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <f>+C15/C17</f>
         <v>-0.46295413532312418</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f>+D15/D17</f>
         <v>-0.44450089628177264</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <f>+E15/E17</f>
         <v>-0.25186419287178469</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <f>+G15/G17</f>
         <v>-0.15427052981268985</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <f>+H15/H17</f>
         <v>-0.15637803481728996</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <f>+I15/I17</f>
         <v>-0.24534741411294689</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1754,11 +1748,11 @@
       <c r="V17" t="s">
         <v>46</v>
       </c>
-      <c r="W17" s="22">
+      <c r="W17" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="V18" t="s">
         <v>47</v>
       </c>
@@ -1767,7 +1761,7 @@
         <v>7093.8014358364126</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="V19" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1770,7 @@
         <v>1024.6570000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="V20" t="s">
         <v>48</v>
       </c>
@@ -1785,7 +1779,7 @@
         <v>8118.4584358364127</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="V22" t="s">
         <v>2</v>
       </c>
@@ -1793,8 +1787,8 @@
         <v>8876</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W23" s="22">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W23" s="19">
         <f>+W20/W22-1</f>
         <v>-8.5347179378502447E-2</v>
       </c>
@@ -1807,23 +1801,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA216E4-A0A2-4368-8227-5BC8BE7544B3}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -1839,7 +1833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -1847,7 +1841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -1855,19 +1849,59 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
